--- a/调研.xlsx
+++ b/调研.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MasterGraduationProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SemiNLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A6B060-8CFC-4953-BFDF-EBAF170688CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E95FF17-6D54-4238-B565-A84BD6DB46AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1800" windowWidth="19440" windowHeight="15600" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
+    <workbookView xWindow="5940" yWindow="1725" windowWidth="19170" windowHeight="14730" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
   <si>
     <t>ICLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +119,6 @@
   </si>
   <si>
     <t>CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co:two-view learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,9 +332,6 @@
   <si>
     <t>language model/sequence autoencoder 预训练，预训练好的word embedding和lstm参数作为有监督分类任务的初始化</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Variational Pretraining for Semi-supervised Text Classification</t>
   </si>
   <si>
     <t>ACL</t>
@@ -402,6 +395,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>batch norm on the reconstruction of x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> KL-annealing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">run each experiment with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ﬁ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ve random seeds, each with a different sample of labeled training instances, and report the mean performance on test data.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> AG News, IMDB, YAHOO! Answers, a dataset of
+tweets labeled in terms of four HATESPEECH categories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenize documents with spaCy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借鉴ELMo的思路，分类时的Sequence-to-vector encoder还要额外加上VAE MLP每一层internal states和\theta的加权和作为加强，权重可学，最开始随机初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low-source setting pretrain method. 基于BoW +topic(仅decode阶段) reconstrcution做VAE预训练;downstream classifier用Deep Averaging Network (DAN)作为Sequence-to-vector encoder, DAN得到的embedding拼接VAE隐层hidden state和latent topic distibution的加权和，后接MLP得到p(y|x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> a purely
+supervised model, with randomly initialized 50-
+dimensional embeddings and no access to unla-
+beled data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the same model initialized with 300-
+dimensional GLOVE vectors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transformer-based ELMO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BERT</t>
+  </si>
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>VAE decoder reconstructs the input in terms of</t>
     </r>
@@ -426,12 +496,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>s, z先转换为代表latent topic distribution的\theta，再由矩阵B转换为softmax的输入；用代表topic质量的topic coherence而非PPL做early stopping</t>
+      <t>s, z先转换为代表latent topic distribution的\theta，再由矩阵B转换为softmax的输入；用代表topic质量的topic coherence NPMI而非PPL做early stopping</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分类时的Sequence-to-vector encoder使用VAE MLP每一层internal states的加权和作为加强（来自ELMo）</t>
+    <t>region embedding + CNN. Aim to map text regions to high-level concepts relevant to the task. More compact and effective than tradiional word embedding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre:two-view learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承接了之前的一篇工作：一篇文档由其包含的word的one-hot vec拼接成的矩阵表示，卷积层将稀疏矩阵的局部(text regions)转换为m维的vector, 取代了传统word embedding的作用(本工作认为embeddings=a function that generates low-dimensional features that preserve the predictive structure), m维的vector蕴含了词汇的co-presence("easy to use")和absence特征("easy to use"前不存在"not")，设此CNN为B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本文在之前工作的基础上，设计了半监督框架: 训练另一个CNN U，输入与B相同，输出则用来预测context from each region. U获得的embedding称为tv-embedding。tv-embedding作为CNN convolution layer的额外input, 获得更好的supervised embedding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variational Pretraining for Semi-supervised Text Classification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,19 +617,25 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,16 +660,109 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>322934</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9356</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323420</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2342890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDB5D08-022A-46D0-82EF-DFDB5D979476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11096625" y="447675"/>
+          <a:ext cx="3438095" cy="2076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>237643</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2295256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{213659BE-4EE9-49B3-9953-112CB8F47EFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14706600" y="323850"/>
+          <a:ext cx="3857143" cy="2152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8609</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152231</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -600,8 +785,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1419225" y="3362325"/>
+          <a:off x="419100" y="2962275"/>
           <a:ext cx="7323809" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523343</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC3EC4B-E30A-4DCA-B927-D0C512950DA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="4371975"/>
+          <a:ext cx="4257143" cy="1466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -910,15 +1139,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F24936B-2AD0-4D1E-B86F-D457E1F95A70}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
@@ -928,10 +1157,11 @@
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -959,17 +1189,17 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>2015</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -982,266 +1212,328 @@
         <v>158</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="8"/>
+      <c r="G3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3">
+        <v>336</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3">
-        <v>336</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>109</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="3">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3">
+        <v>64</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3">
-        <v>90</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>109</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3">
-        <v>64</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="E12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="J10" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="J11" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="G15" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="3">
-        <v>61</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
-    </row>
+    </row>
+    <row r="16" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
     <sortCondition ref="A1"/>
   </sortState>
+  <mergeCells count="10">
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1250,7 +1542,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1263,38 +1555,38 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>55</v>
       </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>23</v>
+      <c r="A3" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="5">
         <v>25000</v>
@@ -1313,17 +1605,17 @@
         <v>2526</v>
       </c>
       <c r="H3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="B4" s="12">
         <v>10662</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="F4">
         <v>22</v>
       </c>
@@ -1333,7 +1625,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5">
         <v>11293</v>
@@ -1350,7 +1642,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="5">
         <v>560000</v>
@@ -1359,20 +1651,20 @@
         <v>70000</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1391,40 +1683,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D5B83F-6307-4A9F-BCC1-7C418C874274}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.25" customWidth="1"/>
+    <col min="1" max="1" width="43.25" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
+      <c r="A1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/调研.xlsx
+++ b/调研.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SemiNLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E95FF17-6D54-4238-B565-A84BD6DB46AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9E6AA1-428D-47EA-9F6F-EB9167423BBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1725" windowWidth="19170" windowHeight="14730" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
+    <workbookView xWindow="28680" yWindow="1800" windowWidth="19440" windowHeight="15600" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="100">
   <si>
     <t>ICLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,10 +323,6 @@
   </si>
   <si>
     <t>主要创新点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用Sequence Autoencoder解决Vanilla LSTM在训练长序列时不稳定的问题（梯度），以前长序列分类主要用BoW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -501,23 +497,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>region embedding + CNN. Aim to map text regions to high-level concepts relevant to the task. More compact and effective than tradiional word embedding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pre:two-view learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>承接了之前的一篇工作：一篇文档由其包含的word的one-hot vec拼接成的矩阵表示，卷积层将稀疏矩阵的局部(text regions)转换为m维的vector, 取代了传统word embedding的作用(本工作认为embeddings=a function that generates low-dimensional features that preserve the predictive structure), m维的vector蕴含了词汇的co-presence("easy to use")和absence特征("easy to use"前不存在"not")，设此CNN为B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本文在之前工作的基础上，设计了半监督框架: 训练另一个CNN U，输入与B相同，输出则用来预测context from each region. U获得的embedding称为tv-embedding。tv-embedding作为CNN convolution layer的额外input, 获得更好的supervised embedding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Variational Pretraining for Semi-supervised Text Classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本文在之前工作的基础上，设计了半监督框架: 训练另一个CNN U，输入与B相同，输出则用来预测context from each region(1.除输入text region左侧和右侧部分的BoW, 像CNN版BERT;2.用有标签数据先训练一个初步的B, 用B的输出的m维embedding作为待预测context, 这种情况没有充分利用无标签数据). U获得的embedding称为tv-embedding。tv-embedding作为CNN convolution layer的额外input, 获得更好的supervised embedding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承接了之前的一篇ont-hot CNN的工作：一篇文档由其包含的word的one-hot vec拼接成的矩阵表示，卷积层将稀疏矩阵的局部(text regions)转换为m维的vector, 取代了传统word embedding的作用(本工作认为embeddings=a function that generates low-dimensional features that preserve the predictive structure), m维的vector蕴含了词汇的co-presence("easy to use")和absence特征("easy to use"前不存在"not")，设此CNN为B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进一步改进了one-hot CNN, one-hot CNN可看做一个linear model + a non-linear feature generator. LSTM can embed text regions of variable (and
+possibly large) sizes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN可以从one-hot向量组成的文本表示中抽取region embedding，这种embedding蕴含了text regions中和任务相关的high-level concepts。在半监督方法上，该工作借鉴了协同训练中multi-view的概念，但本质上是类似Bert的Language Model，通过预测context的方法预训练一个embedding，然后作为CNN的辅助输入特征，最终预测label。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用Sequence Autoencoder解决Vanilla LSTM在训练长序列时不稳定的问题（梯度），以前长序列分类主要用BoW，现在用SA可以考虑文本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,13 +632,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,7 +1147,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1199,42 +1204,49 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="11">
         <v>2015</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="9">
         <v>158</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="8"/>
-      <c r="G3" s="1"/>
+    <row r="3" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
@@ -1254,7 +1266,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>43</v>
@@ -1266,7 +1278,7 @@
         <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>63</v>
@@ -1275,7 +1287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>2016</v>
       </c>
@@ -1296,6 +1308,9 @@
       </c>
       <c r="I5" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -1326,16 +1341,16 @@
         <v>2017</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3">
         <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
@@ -1364,153 +1379,153 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>2018</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="11">
         <v>2019</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10" t="s">
+      <c r="F12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="10"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>2019</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1518,7 +1533,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
     <sortCondition ref="A1"/>
   </sortState>
-  <mergeCells count="10">
+  <mergeCells count="19">
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="H12:H14"/>
@@ -1529,6 +1544,15 @@
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="F12:F14"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1542,7 +1566,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1615,7 +1639,7 @@
       <c r="B4" s="12">
         <v>10662</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="11"/>
       <c r="F4">
         <v>22</v>
       </c>
@@ -1722,27 +1746,27 @@
     </row>
     <row r="6" spans="1:1" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/调研.xlsx
+++ b/调研.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SemiNLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangcy/Documents/Projects/SemiNLP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9E6AA1-428D-47EA-9F6F-EB9167423BBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70A3D9F-A779-8241-8AF9-B5AA7E28E9C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1800" windowWidth="19440" windowHeight="15600" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>ICLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,10 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>word dropout, embedding dropout防止过拟合，linear gain method在decoder每一步加label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BoW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,10 +319,6 @@
   </si>
   <si>
     <t>主要创新点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>language model/sequence autoencoder 预训练，预训练好的word embedding和lstm参数作为有监督分类任务的初始化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -522,7 +514,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>利用Sequence Autoencoder解决Vanilla LSTM在训练长序列时不稳定的问题（梯度），以前长序列分类主要用BoW，现在用SA可以考虑文本</t>
+    <t>language model(predicting the next word)/sequence autoencoder 预训练，预训练好的word embedding和lstm参数作为有监督分类任务的初始化，LSTM最后一个timestep的hidden state后接分类器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用Sequence Autoencoder解决Vanilla LSTM在长序列分类问题上的不稳定问题（梯度），以前长序列分类主要用BoW，现在用SA可以考虑文本中包含的序列信息了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word dropout, embedding dropout防止过拟合；linear gain method在decoder每一步加label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规方法：word的one-hot表示和矩阵V相乘获得word embedding，word mebedding作为LSTM输入和LSTM的参数矩阵W相乘然后进行后续运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM 1-3  gram</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,21 +644,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -848,7 +860,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1146,26 +1158,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F24936B-2AD0-4D1E-B86F-D457E1F95A70}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView topLeftCell="A4" zoomScale="181" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -1194,62 +1206,62 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="240">
+      <c r="A2" s="9">
         <v>2015</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>158</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="224">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" ht="176">
       <c r="A4" s="8">
         <v>2015</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>43</v>
@@ -1278,16 +1290,16 @@
         <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="128">
       <c r="A5" s="8">
         <v>2016</v>
       </c>
@@ -1300,6 +1312,9 @@
       <c r="D5" s="3">
         <v>90</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="G5" t="s">
         <v>29</v>
       </c>
@@ -1310,10 +1325,10 @@
         <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="32">
       <c r="A6" s="8">
         <v>2017</v>
       </c>
@@ -1336,24 +1351,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="36" customHeight="1">
       <c r="A7" s="8">
         <v>2017</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3">
         <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="224">
       <c r="A8" s="8">
         <v>2017</v>
       </c>
@@ -1379,7 +1394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="32">
       <c r="A9" s="8">
         <v>2017</v>
       </c>
@@ -1396,7 +1411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="32">
       <c r="A10" s="8">
         <v>2018</v>
       </c>
@@ -1410,7 +1425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="144.75" customHeight="1">
       <c r="A11" s="8">
         <v>2018</v>
       </c>
@@ -1439,101 +1454,110 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+    <row r="12" spans="1:12" ht="36" customHeight="1">
+      <c r="A12" s="9">
         <v>2019</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="B12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="9" t="s">
+      <c r="E12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="109.5" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" ht="102.75" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" ht="48">
       <c r="A15" s="8">
         <v>2019</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="39.75" customHeight="1"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="H12:H14"/>
@@ -1544,15 +1568,6 @@
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="F12:F14"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1566,23 +1581,23 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D35" sqref="D35:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1608,7 +1623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -1632,14 +1647,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="12">
         <v>10662</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="9"/>
       <c r="F4">
         <v>22</v>
       </c>
@@ -1647,7 +1662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1664,7 +1679,7 @@
         <v>11925</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1681,12 +1696,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1707,66 +1722,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D5B83F-6307-4A9F-BCC1-7C418C874274}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="16">
       <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16">
+      <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" ht="16">
+      <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="16">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="64">
       <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="32">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16">
+      <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:1" ht="16">
+      <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:1" ht="16">
+      <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>90</v>
+    <row r="11" spans="1:1" ht="16">
+      <c r="A11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16">
+      <c r="A12" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/调研.xlsx
+++ b/调研.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangcy/Documents/Projects/SemiNLP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SemiNLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70A3D9F-A779-8241-8AF9-B5AA7E28E9C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44793AE7-E0EA-41A8-A1C6-81B6080432DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
+    <workbookView xWindow="28680" yWindow="1800" windowWidth="19440" windowHeight="15600" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
   <si>
     <t>ICLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,10 +489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pre:two-view learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Variational Pretraining for Semi-supervised Text Classification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,36 +501,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进一步改进了one-hot CNN, one-hot CNN可看做一个linear model + a non-linear feature generator. LSTM can embed text regions of variable (and
+    <t>利用Sequence Autoencoder解决Vanilla LSTM在长序列分类问题上的不稳定问题（梯度），以前长序列分类主要用BoW，现在用SA可以考虑文本中包含的序列信息了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word dropout, embedding dropout防止过拟合；linear gain method在decoder每一步加label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM 1-3  gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strict word order is not very useful on RCV1</t>
+  </si>
+  <si>
+    <t>No data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language model(predicting the next word)/sequence autoencoder 预训练，预训练好的word embedding和lstm参数作为有监督分类任务的初始化，有监督阶段会fine-tune预训练结果，LSTM最后一个timestep的hidden state后接分类器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre:additional input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use unlabel data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paragraph vectors</t>
+  </si>
+  <si>
+    <t>进一步改进了one-hot CNN：one-hot CNN可看做一个linear model + a non-linear feature generator, 本文把non-linear feature extractor从CNN改为了LSTM, 因为LSTM可以 embed text regions of variable (and
 possibly large) sizes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CNN可以从one-hot向量组成的文本表示中抽取region embedding，这种embedding蕴含了text regions中和任务相关的high-level concepts。在半监督方法上，该工作借鉴了协同训练中multi-view的概念，但本质上是类似Bert的Language Model，通过预测context的方法预训练一个embedding，然后作为CNN的辅助输入特征，最终预测label。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>language model(predicting the next word)/sequence autoencoder 预训练，预训练好的word embedding和lstm参数作为有监督分类任务的初始化，LSTM最后一个timestep的hidden state后接分类器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用Sequence Autoencoder解决Vanilla LSTM在长序列分类问题上的不稳定问题（梯度），以前长序列分类主要用BoW，现在用SA可以考虑文本中包含的序列信息了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>word dropout, embedding dropout防止过拟合；linear gain method在decoder每一步加label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规方法：word的one-hot表示和矩阵V相乘获得word embedding，word mebedding作为LSTM输入和LSTM的参数矩阵W相乘然后进行后续运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVM Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVM 1-3  gram</t>
+    <r>
+      <t>Two-view含义： An embedding is called a tv-embedding if the embedded view is as good as the original view for the purpose of predicting the other view. If the two views and the labels are related to one another only through some hidden states, then the tv-embedded view is as good as the original view for the purpose of classi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ﬁ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cation. Such an embedding is useful provided that its dimensionality is much lower than the original view. JZ15b applied this idea by regarding text regions embedded by the convolution layer as one view and their surrounding context as the other view</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于one-hot LSTM后面还会接pooling，作者还把输入序列切为多个小段学习，LSTM的记忆负担被减轻，input/forget gate就变得没有必要，在实验中被去掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半监督仍然体现在tv-embedding上，LSTM用view-1(已经看到过的词)预测view-2(即context，未来的k个词，不再和原LSTM一样只预测未来1个词)，为了保证两个view只由和task相关的concept相联系，还把function words从target view中去除了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有监督部分的改进 one-hot LSTM：常规的LSTM是用word的one-hot表示和矩阵V相乘获得word embedding，word mebedding作为LSTM输入和LSTM的参数矩阵W相乘然后进行后续运算。One-hot LSTM去掉了V，或者说把LSTM中负责转换输入x的矩阵变为了WV，WV的第二维与词典大小相同，LSTM的输入就直接是one-hot向量而非word embedding。作者认为one-hot LSTM表达能力至少强于原wv-LSTM，wv-LSTM使用word embedding，相当于限制了WV的空间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN可以从one-hot向量组成的文本表示中抽取region embedding，这种embedding蕴含了text regions中和任务相关的high-level concepts，比起word embedding of single word in isolation更有优势。在半监督方法上，该工作借鉴了协同训练中multi-view的概念，但本质上是类似Bert的Language Model，通过预测context的方法预训练一个embedding，然后作为有监督任务中CNN的辅助输入特征，最终预测label。预训练阶段的产出不直接是embedding，而是一个CNN(本文作者认为embedding即function)，该CNN可以为每个输入text region产生tv-embedding，这个tv-embedding是预训练生成的CNN预测context时产生的中间产物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术演进：Adversarial training(a means of regularizing supervised learning)-&gt;VAT(extend to semi-supervised)-&gt;extend to text domain by applying perturbations to word embedding rather than original one-hot input.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,7 +637,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,6 +647,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,16 +708,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -755,6 +823,50 @@
         <a:xfrm>
           <a:off x="14706600" y="323850"/>
           <a:ext cx="3857143" cy="2152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>551832</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2571482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D5DEBB-C008-4402-91BA-18098A38997C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="12372975"/>
+          <a:ext cx="4942857" cy="2142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -860,7 +972,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1156,28 +1268,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F24936B-2AD0-4D1E-B86F-D457E1F95A70}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="181" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -1215,359 +1327,428 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="240">
-      <c r="A2" s="9">
+    <row r="2" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
         <v>2015</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>158</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="224">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="9"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="176">
-      <c r="A4" s="8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>2015</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>336</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="128">
-      <c r="A5" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3">
-        <v>90</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="228" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11">
+        <v>90</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="32">
-      <c r="A6" s="8">
+      <c r="J6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>2017</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D10" s="3">
         <v>109</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="36" customHeight="1">
-      <c r="A7" s="8">
+    <row r="11" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>2017</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D11" s="3">
         <v>61</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="224">
-      <c r="A8" s="8">
+    <row r="12" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>2017</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D12" s="3">
         <v>64</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32">
-      <c r="A9" s="8">
+    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>2017</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D13" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="32">
-      <c r="A10" s="8">
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>2018</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D14" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="144.75" customHeight="1">
-      <c r="A11" s="8">
+    <row r="15" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>2018</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="36" customHeight="1">
-      <c r="A12" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="109.5" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" ht="102.75" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" ht="48">
-      <c r="A15" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="39.75" customHeight="1"/>
+    <row r="20" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L20">
     <sortCondition ref="A1"/>
   </sortState>
-  <mergeCells count="19">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
+  <mergeCells count="28">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1578,26 +1759,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C531D3C7-2B2A-4F63-B567-81EAAB4C89FA}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:F35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1623,7 +1804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -1647,14 +1828,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="14">
         <v>10662</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="13"/>
       <c r="F4">
         <v>22</v>
       </c>
@@ -1662,7 +1843,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1672,6 +1853,9 @@
       <c r="C5" s="5">
         <v>7528</v>
       </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
       <c r="F5">
         <v>267</v>
       </c>
@@ -1679,7 +1863,7 @@
         <v>11925</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1696,14 +1880,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1722,76 +1909,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D5B83F-6307-4A9F-BCC1-7C418C874274}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="64">
+    <row r="6" spans="1:1" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="32">
+    <row r="7" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="16">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="16">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/调研.xlsx
+++ b/调研.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SemiNLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44793AE7-E0EA-41A8-A1C6-81B6080432DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A44336-5496-41A6-96FF-08A2C62DB825}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1800" windowWidth="19440" windowHeight="15600" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
+    <workbookView xWindow="28680" yWindow="1800" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
   <si>
     <t>ICLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,14 +68,6 @@
   </si>
   <si>
     <t>方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Virtual Adversial Training</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre+co</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -517,14 +509,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strict word order is not very useful on RCV1</t>
-  </si>
-  <si>
     <t>No data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>language model(predicting the next word)/sequence autoencoder 预训练，预训练好的word embedding和lstm参数作为有监督分类任务的初始化，有监督阶段会fine-tune预训练结果，LSTM最后一个timestep的hidden state后接分类器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -588,6 +573,90 @@
   </si>
   <si>
     <t>技术演进：Adversarial training(a means of regularizing supervised learning)-&gt;VAT(extend to semi-supervised)-&gt;extend to text domain by applying perturbations to word embedding rather than original one-hot input.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an Amazon electronic product review dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>short snippets of movie reviews, for sentiment classi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ﬁ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-
+cation</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a standard benchmark movie review dataset for sentiment classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a dataset of Wikipedia pages for category classi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ﬁ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cation</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用language model(predicting the next word)/sequence autoencoder在有标签+无标签的输入文本上做预训练，预训练好的word embedding和lstm参数作为有监督分类任务的初始化，有监督阶段会fine-tune预训练结果，LSTM最后一个timestep的hidden state后接分类器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre(Dai&amp;Le LSTM pretrain)+co(Virtual Adversial Training)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用Dai&amp;Le的方法先做预训练，训练分类器的阶段引入AT(对有标签数据)和VAT(对有+无标签数据)，AT/VAT无法直接对高维离散的one-hot表示做perturbation，所以在word embedding上做perturbation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transductive SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news articles from the Reuters Corpus. on the RCV1 dataset, there are
+some very long sentences compared with the other datasets. Strict word order is not very useful on RCV1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,20 +777,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -888,8 +960,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>8609</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2066009</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>152231</xdr:rowOff>
     </xdr:to>
@@ -960,6 +1032,99 @@
         <a:xfrm>
           <a:off x="419100" y="4371975"/>
           <a:ext cx="4257143" cy="1466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>138237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227642</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C384A5D8-2794-4FAB-BA52-FD816500A4CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="4300662"/>
+          <a:ext cx="6199817" cy="1671255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA42B63-01B5-4F4A-B806-33589F92456B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="4505325"/>
+          <a:ext cx="5743575" cy="1343136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1270,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F24936B-2AD0-4D1E-B86F-D457E1F95A70}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1300,10 +1465,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>8</v>
@@ -1318,13 +1483,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
@@ -1332,97 +1497,97 @@
         <v>2015</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="11">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12">
         <v>158</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>18</v>
+      <c r="E2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="13"/>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="13"/>
       <c r="J4" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="228" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>2015</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3">
         <v>336</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="228" x14ac:dyDescent="0.2">
@@ -1430,55 +1595,55 @@
         <v>2016</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12">
         <v>90</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="13"/>
       <c r="J7" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="15"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -1486,13 +1651,13 @@
       <c r="H8" s="10"/>
       <c r="I8" s="9"/>
       <c r="J8" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="15"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1500,7 +1665,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>2017</v>
       </c>
@@ -1514,13 +1679,13 @@
         <v>109</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1528,16 +1693,16 @@
         <v>2017</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3">
         <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
@@ -1545,25 +1710,25 @@
         <v>2017</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3">
         <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
@@ -1571,16 +1736,16 @@
         <v>2017</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3">
         <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -1588,10 +1753,10 @@
         <v>2018</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3">
         <v>8</v>
@@ -1602,28 +1767,28 @@
         <v>2018</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1631,88 +1796,88 @@
         <v>2019</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="11">
+        <v>66</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="12">
         <v>0</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>83</v>
+      <c r="E16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="11" t="s">
-        <v>80</v>
+      <c r="H16" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>79</v>
+      <c r="L16" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="13"/>
       <c r="J17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="11"/>
+        <v>79</v>
+      </c>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="11"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="13"/>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>2019</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1721,15 +1886,15 @@
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E2:E4"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="L16:L18"/>
     <mergeCell ref="H16:H18"/>
@@ -1740,15 +1905,15 @@
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1761,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C531D3C7-2B2A-4F63-B567-81EAAB4C89FA}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L10:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1770,43 +1935,43 @@
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5">
         <v>25000</v>
@@ -1825,14 +1990,17 @@
         <v>2526</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="14">
+        <v>55</v>
+      </c>
+      <c r="B4" s="15">
         <v>10662</v>
       </c>
       <c r="C4" s="13"/>
@@ -1842,10 +2010,13 @@
       <c r="G4">
         <v>52</v>
       </c>
+      <c r="I4" s="16" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5">
         <v>11293</v>
@@ -1854,7 +2025,7 @@
         <v>7528</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F5">
         <v>267</v>
@@ -1865,7 +2036,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="5">
         <v>560000</v>
@@ -1873,24 +2044,33 @@
       <c r="C6" s="5">
         <v>70000</v>
       </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>98</v>
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1903,16 +2083,17 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{2680A128-F54E-4AC6-8F51-8F153FA6DD89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D5B83F-6307-4A9F-BCC1-7C418C874274}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1923,76 +2104,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/调研.xlsx
+++ b/调研.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SemiNLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangcy/Documents/Projects/SemiNLP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A44336-5496-41A6-96FF-08A2C62DB825}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262D7565-01F8-044B-BA6B-3CED36A1BD0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1800" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="121">
   <si>
     <t>ICLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,10 +572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技术演进：Adversarial training(a means of regularizing supervised learning)-&gt;VAT(extend to semi-supervised)-&gt;extend to text domain by applying perturbations to word embedding rather than original one-hot input.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>an Amazon electronic product review dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,12 +655,36 @@
 some very long sentences compared with the other datasets. Strict word order is not very useful on RCV1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>improved not only classiﬁcation performance but also the quality of word embeddings. 无AT/VAT训出的"good"和"bad"embedding距离很近，因为两者在句子中的语法角色相似。加上对抗学习后，两者距离变远。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上和random noise的对比。AT和VAT的关键技术就是选无穷小变化内最差的那个噪声。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMDB, Elec, Rotten Tomatoes, DBpedia, RCV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error rates, 举例Embedding质量实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入LSTM的word embedding归一化为normed word embedding，因为模型可以使word embedding变大从而使噪声变得无关紧要（噪声也是normed的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术演进：Adversarial training(a means of regularizing supervised learning; 在输入x附近找到使的log likelihood最小的最差扰动，一阶梯度近似argmin)-&gt;VAT(不需要数据的lable, 用KLD寻找最差扰动，extend to semi-supervised; 用泰勒??近似寻找最差的扰动，)-&gt;extend to text domain by applying perturbations to word embedding rather than original one-hot input.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,7 +726,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,12 +736,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,13 +786,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -792,13 +800,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -939,6 +944,50 @@
         <a:xfrm>
           <a:off x="11430000" y="12372975"/>
           <a:ext cx="4942857" cy="2142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>317090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA473897-3A3B-4B41-8E90-C3E1750CFC35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11823700" y="18503900"/>
+          <a:ext cx="4495800" cy="2755490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1137,7 +1186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1435,26 +1484,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F24936B-2AD0-4D1E-B86F-D457E1F95A70}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -1492,67 +1541,67 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+    <row r="2" spans="1:12" ht="240">
+      <c r="A2" s="11">
         <v>2015</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>158</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+    <row r="3" spans="1:12" ht="224">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+    <row r="4" spans="1:12" ht="320">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="228" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="240">
       <c r="A5" s="8">
         <v>2015</v>
       </c>
@@ -1569,7 +1618,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>41</v>
@@ -1590,32 +1639,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="228" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+    <row r="6" spans="1:12" ht="256">
+      <c r="A6" s="11">
         <v>2016</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>90</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1626,69 +1675,86 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
+    <row r="7" spans="1:12" ht="136.5" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="9"/>
+    <row r="8" spans="1:12" ht="217" customHeight="1">
+      <c r="A8" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>109</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="11"/>
+        <v>120</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="136.5" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>109</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="10"/>
+      <c r="J9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="48">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="36" customHeight="1">
       <c r="A11" s="8">
         <v>2017</v>
       </c>
@@ -1705,7 +1771,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="224">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
@@ -1731,7 +1797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="32">
       <c r="A13" s="8">
         <v>2017</v>
       </c>
@@ -1748,7 +1814,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="32">
       <c r="A14" s="8">
         <v>2018</v>
       </c>
@@ -1762,7 +1828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="144.75" customHeight="1">
       <c r="A15" s="8">
         <v>2018</v>
       </c>
@@ -1791,30 +1857,30 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+    <row r="16" spans="1:12" ht="36" customHeight="1">
+      <c r="A16" s="11">
         <v>2019</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>0</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -1823,47 +1889,47 @@
       <c r="K16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
+    <row r="17" spans="1:12" ht="109.5" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" ht="102.75" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" ht="48">
       <c r="A19" s="8">
         <v>2019</v>
       </c>
@@ -1880,12 +1946,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:12" ht="39.75" customHeight="1"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L20">
     <sortCondition ref="A1"/>
   </sortState>
-  <mergeCells count="28">
+  <mergeCells count="38">
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
@@ -1914,6 +1980,16 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="K8:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1926,24 +2002,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C531D3C7-2B2A-4F63-B567-81EAAB4C89FA}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B6" workbookViewId="0">
       <selection activeCell="L16" sqref="L10:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="32.25" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1969,7 +2045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -1993,28 +2069,28 @@
         <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>10662</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="11"/>
       <c r="F4">
         <v>22</v>
       </c>
       <c r="G4">
         <v>52</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2034,7 +2110,7 @@
         <v>11925</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -2054,23 +2130,23 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="313.5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="350">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2096,83 +2172,83 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="16">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="16">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="16">
       <c r="A4" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16">
       <c r="A5" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="16">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="64">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="32">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="16">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="16">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="16">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="16">
       <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="16">
       <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="16">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="16">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>

--- a/调研.xlsx
+++ b/调研.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangcy/Documents/Projects/SemiNLP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SemiNLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262D7565-01F8-044B-BA6B-3CED36A1BD0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2428C8B-214A-4CE5-BF41-33FB488E8344}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
+    <workbookView xWindow="28680" yWindow="1800" windowWidth="19440" windowHeight="15600" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
   <si>
     <t>ICLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -679,12 +679,28 @@
     <t>技术演进：Adversarial training(a means of regularizing supervised learning; 在输入x附近找到使的log likelihood最小的最差扰动，一阶梯度近似argmin)-&gt;VAT(不需要数据的lable, 用KLD寻找最差扰动，extend to semi-supervised; 用泰勒??近似寻找最差的扰动，)-&gt;extend to text domain by applying perturbations to word embedding rather than original one-hot input.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NIPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deconvolutional Paragraph Representation Learning</t>
+  </si>
+  <si>
+    <t>pre+co</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a sequence-to-sequence, purely convolutional and
+deconvolutional autoencoding framework to learn latent representation from long text sequence. 这篇工作主要还是在学representation，顺便应用于semi分类的任务上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,7 +773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,16 +810,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1186,7 +1208,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1482,28 +1504,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F24936B-2AD0-4D1E-B86F-D457E1F95A70}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -1541,67 +1563,67 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="240">
-      <c r="A2" s="11">
+    <row r="2" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
         <v>2015</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>158</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="224">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
+    <row r="3" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="320">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
+    <row r="4" spans="1:12" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="240">
+    <row r="5" spans="1:12" ht="228" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>2015</v>
       </c>
@@ -1639,32 +1661,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="256">
-      <c r="A6" s="11">
+    <row r="6" spans="1:12" ht="228" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>2016</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="12">
         <v>90</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1675,283 +1697,334 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="136.5" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+    <row r="7" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="217" customHeight="1">
-      <c r="A8" s="11">
+    <row r="8" spans="1:12" ht="216.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>2017</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <v>109</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="12" t="s">
         <v>118</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="136.5" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+    <row r="9" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" ht="48">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" ht="36" customHeight="1">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>2017</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="224">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="216.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="10">
         <v>38</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="32">
-      <c r="A13" s="8">
+      <c r="E13" s="10"/>
+      <c r="F13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>2017</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="32">
-      <c r="A14" s="8">
-        <v>2018</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="144.75" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>2018</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="36" customHeight="1">
-      <c r="A16" s="11">
+    <row r="17" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>2019</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="12">
         <v>0</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E17" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10" t="s">
+      <c r="G17" s="14"/>
+      <c r="H17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I17" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L17" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="109.5" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="1" t="s">
+    <row r="18" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="102.75" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="1" t="s">
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" ht="48">
-      <c r="A19" s="8">
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>2019</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="39.75" customHeight="1"/>
+    <row r="21" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L21">
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="38">
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
@@ -1961,35 +2034,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="K8:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2006,20 +2050,20 @@
       <selection activeCell="L16" sqref="L10:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2045,7 +2089,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -2072,14 +2116,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="15">
         <v>10662</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="14"/>
       <c r="F4">
         <v>22</v>
       </c>
@@ -2090,7 +2134,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2110,7 +2154,7 @@
         <v>11925</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -2133,7 +2177,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2141,7 +2185,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="350">
+    <row r="10" spans="1:9" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2172,83 +2216,83 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="64">
+    <row r="7" spans="1:1" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="32">
+    <row r="8" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="16">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="16">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>

--- a/调研.xlsx
+++ b/调研.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SemiNLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2428C8B-214A-4CE5-BF41-33FB488E8344}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D12187-1EF5-404F-8B42-FE30580D08FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1800" windowWidth="19440" windowHeight="15600" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
   </bookViews>
@@ -813,11 +813,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,7 +1507,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1564,13 +1564,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>2015</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="12">
@@ -1588,7 +1588,7 @@
       <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1596,29 +1596,29 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="14"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="14"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="1" t="s">
         <v>101</v>
       </c>
@@ -1662,13 +1662,13 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="228" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>2016</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="12">
@@ -1680,13 +1680,13 @@
       <c r="F6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1698,27 +1698,27 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="14"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="216.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>2017</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="12">
@@ -1730,7 +1730,7 @@
       <c r="F8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="12" t="s">
@@ -1747,13 +1747,13 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="1" t="s">
@@ -1762,13 +1762,13 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="1" t="s">
@@ -1902,13 +1902,13 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>2019</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D17" s="12">
@@ -1920,11 +1920,11 @@
       <c r="F17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>87</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -1938,15 +1938,15 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="14"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="14"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="1" t="s">
         <v>88</v>
       </c>
@@ -1956,15 +1956,15 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="14"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="1" t="s">
         <v>80</v>
       </c>
@@ -1996,25 +1996,15 @@
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="38">
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E2:E4"/>
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="L17:L19"/>
     <mergeCell ref="H17:H19"/>
@@ -2025,15 +2015,25 @@
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="F17:F19"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="K8:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2123,7 +2123,7 @@
       <c r="B4" s="15">
         <v>10662</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="13"/>
       <c r="F4">
         <v>22</v>
       </c>

--- a/调研.xlsx
+++ b/调研.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SemiNLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangcy/Documents/Projects/SemiNLP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D12187-1EF5-404F-8B42-FE30580D08FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C237882A-5AD1-E94B-B356-4AA23A6C1832}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1800" windowWidth="19440" windowHeight="15600" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="123">
   <si>
     <t>ICLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -680,19 +680,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NIPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Deconvolutional Paragraph Representation Learning</t>
-  </si>
-  <si>
-    <t>pre+co</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a sequence-to-sequence, purely convolutional and
-deconvolutional autoencoding framework to learn latent representation from long text sequence. 这篇工作主要还是在学representation，顺便应用于semi分类的任务上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn rep for long paragraph. purly convolutional and deconvolutional seq2seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +692,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,19 +805,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1208,7 +1200,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1504,28 +1496,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F24936B-2AD0-4D1E-B86F-D457E1F95A70}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -1563,14 +1555,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+    <row r="2" spans="1:12" ht="240">
+      <c r="A2" s="14">
         <v>2015</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="12">
@@ -1588,42 +1580,42 @@
       <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
+    <row r="3" spans="1:12" ht="224">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+    <row r="4" spans="1:12" ht="320">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="228" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="240">
       <c r="A5" s="8">
         <v>2015</v>
       </c>
@@ -1661,14 +1653,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="228" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+    <row r="6" spans="1:12" ht="256">
+      <c r="A6" s="14">
         <v>2016</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="12">
@@ -1680,13 +1672,13 @@
       <c r="F6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1697,28 +1689,28 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
+    <row r="7" spans="1:12" ht="136.5" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="216.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+    <row r="8" spans="1:12" ht="217" customHeight="1">
+      <c r="A8" s="14">
         <v>2017</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="12">
@@ -1730,7 +1722,7 @@
       <c r="F8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="12" t="s">
@@ -1746,14 +1738,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
+    <row r="9" spans="1:12" ht="136.5" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="1" t="s">
@@ -1761,14 +1753,14 @@
       </c>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+    <row r="10" spans="1:12" ht="48">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="1" t="s">
@@ -1776,226 +1768,253 @@
       </c>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3">
-        <v>64</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="36" customHeight="1"/>
+    <row r="12" spans="1:12" ht="224">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="32">
+      <c r="A13" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>61</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="216.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+    <row r="14" spans="1:12" ht="73" customHeight="1">
+      <c r="A14" s="11">
         <v>2017</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D14" s="10">
+        <v>38</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="10">
-        <v>38</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="97" customHeight="1">
+      <c r="A15" s="8">
         <v>2017</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>2018</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="32">
       <c r="A16" s="8">
         <v>2018</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="144.75" customHeight="1">
+      <c r="A17" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+    <row r="18" spans="1:12" ht="36" customHeight="1">
+      <c r="A18" s="14">
         <v>2019</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="12">
         <v>0</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12" t="s">
+      <c r="G18" s="14"/>
+      <c r="H18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I18" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L18" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
+    <row r="19" spans="1:12" ht="109.5" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="102.75" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" ht="48">
+      <c r="A21" s="8">
         <v>2019</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:12" ht="39.75" customHeight="1"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L22">
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="38">
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
@@ -2005,35 +2024,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="K8:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2050,20 +2040,20 @@
       <selection activeCell="L16" sqref="L10:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="32.125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2089,7 +2079,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -2116,14 +2106,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="15">
         <v>10662</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="F4">
         <v>22</v>
       </c>
@@ -2134,7 +2124,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2154,7 +2144,7 @@
         <v>11925</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -2177,7 +2167,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2185,7 +2175,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="313.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="350">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2216,83 +2206,83 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="16">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="16">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="16">
       <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="16">
       <c r="A5" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="16">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="64">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="32">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="16">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="16">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="16">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="16">
       <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="16">
       <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="16">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="16">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>

--- a/调研.xlsx
+++ b/调研.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangcy/Documents/Projects/SemiNLP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SemiNLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C237882A-5AD1-E94B-B356-4AA23A6C1832}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064C4FAD-746D-420B-B8F8-005BF9C52904}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
+    <workbookView xWindow="28680" yWindow="1800" windowWidth="19440" windowHeight="15600" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="125">
   <si>
     <t>ICLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,9 +155,6 @@
   <si>
     <t>co:multitask</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a latentvariable generative model and a discriminative labeler</t>
   </si>
   <si>
     <t>CoNLL 2003 English NER dataset, 7 POS datasets(1Twitter tagging dataset+ 6 languages from
@@ -687,12 +684,24 @@
     <t>learn rep for long paragraph. purly convolutional and deconvolutional seq2seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>a latentvariable generative model and a discriminative labeler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,19 +814,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1200,7 +1209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1498,26 +1507,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F24936B-2AD0-4D1E-B86F-D457E1F95A70}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -1546,33 +1555,33 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="240">
-      <c r="A2" s="14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
         <v>2015</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="12">
         <v>158</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>27</v>
@@ -1580,42 +1589,42 @@
       <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="224">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="14"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="320">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="13"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="14"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="240">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="228" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>2015</v>
       </c>
@@ -1632,144 +1641,144 @@
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="256">
-      <c r="A6" s="14">
+    </row>
+    <row r="6" spans="1:12" ht="228" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
         <v>2016</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="12">
         <v>90</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="136.5" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="13"/>
+    <row r="7" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="14"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="217" customHeight="1">
-      <c r="A8" s="14">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="216.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
         <v>2017</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="12">
         <v>109</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="136.5" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13"/>
+    </row>
+    <row r="9" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="48">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13"/>
+    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="36" customHeight="1"/>
-    <row r="12" spans="1:12" ht="224">
+    <row r="11" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
@@ -1783,36 +1792,36 @@
         <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="32">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>2017</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3">
         <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="73" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>2017</v>
       </c>
@@ -1820,40 +1829,44 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="10">
         <v>38</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="97" customHeight="1">
+        <v>121</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="96.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>2017</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3">
         <v>7</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>2018</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1862,7 +1875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="144.75" customHeight="1">
+    <row r="17" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>2018</v>
       </c>
@@ -1879,132 +1892,122 @@
         <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
         <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="36" customHeight="1">
-      <c r="A18" s="14">
+    </row>
+    <row r="18" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
         <v>2019</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>89</v>
+      <c r="B18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="D18" s="12">
         <v>0</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="G18" s="13"/>
       <c r="H18" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="109.5" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
+    </row>
+    <row r="19" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="14"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:12" ht="102.75" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
+    <row r="20" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="14"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="14"/>
+      <c r="I20" s="13"/>
       <c r="J20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" ht="48">
+    <row r="21" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="39.75" customHeight="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L22">
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="38">
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E2:E4"/>
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="L18:L20"/>
     <mergeCell ref="H18:H20"/>
@@ -2015,15 +2018,25 @@
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="K8:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2040,46 +2053,46 @@
       <selection activeCell="L16" sqref="L10:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -2100,20 +2113,20 @@
         <v>2526</v>
       </c>
       <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="B4" s="15">
         <v>10662</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="13"/>
       <c r="F4">
         <v>22</v>
       </c>
@@ -2121,12 +2134,12 @@
         <v>52</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5">
         <v>11293</v>
@@ -2135,7 +2148,7 @@
         <v>7528</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5">
         <v>267</v>
@@ -2144,9 +2157,9 @@
         <v>11925</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5">
         <v>560000</v>
@@ -2155,32 +2168,32 @@
         <v>70000</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="350">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2206,85 +2219,85 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16">
-      <c r="A4" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="16">
-      <c r="A5" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="64">
+    <row r="7" spans="1:1" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="32">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="16">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16">
-      <c r="A11" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="16">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16">
-      <c r="A13" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="16">
-      <c r="A17" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/调研.xlsx
+++ b/调研.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SemiNLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangcy/Documents/Projects/SemiNLP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064C4FAD-746D-420B-B8F8-005BF9C52904}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A71EAF4-F104-5B4F-9406-2F4F69DA2271}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1800" windowWidth="19440" windowHeight="15600" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
   <si>
     <t>ICLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,19 +681,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>learn rep for long paragraph. purly convolutional and deconvolutional seq2seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a latentvariable generative model and a discriminative labeler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>摘要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre</t>
+    <t>exposure bias为rep learning带来的问题:训练时decode的每一步给groud truth，导致中间embedding h没必要保存reconstruction所需的所有信息了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn rep for long paragraph. purly convolutional and deconvolutional seq2seq. Train a sequence autoencoder + supervised model simultaneously</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本分类 (sentiment analysis, paragraph topic prediction)摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deconvolution里用的摘要数据：For summarization, we used a dataset composed of 58,000 abstract-title pairs, from arXiv. Abstracttitle pairs are selected if the length of the title and abstract do not exceed 50 and 500 words, respectively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBPedia, Yahoo! Answers and Yelp Review Polarity; 摘要数据来自arxiv的title-abstract pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>under the joint training objective(reconstruction) -&gt; more extractive; purely supervised objective -&gt; more abstractive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, the titles produced by a deconvolutional decoder are less coherent than an LSTM decoder.</t>
+  </si>
+  <si>
+    <t>decoder用CNN，解决了exposure bias，实验两方面，生成rep的质量  (原始句子和重构句子间的BLEU和ROUGE)，spelling correction和半监督任务效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +720,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,8 +844,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1011,6 +1030,50 @@
         <a:xfrm>
           <a:off x="11823700" y="18503900"/>
           <a:ext cx="4495800" cy="2755490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>893704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>366890</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1316585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE82228-2B27-8449-96DB-74ACDD9CA722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12784667" y="27892963"/>
+          <a:ext cx="6124223" cy="422881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1209,7 +1272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1505,28 +1568,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F24936B-2AD0-4D1E-B86F-D457E1F95A70}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="16">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1627,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="240">
       <c r="A2" s="13">
         <v>2015</v>
       </c>
@@ -1596,7 +1659,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="224">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
@@ -1610,7 +1673,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="299.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="320">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
@@ -1624,7 +1687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="228" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="240">
       <c r="A5" s="8">
         <v>2015</v>
       </c>
@@ -1662,7 +1725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="228" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="256">
       <c r="A6" s="13">
         <v>2016</v>
       </c>
@@ -1698,7 +1761,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="136.5" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
@@ -1712,7 +1775,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="216.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="217" customHeight="1">
       <c r="A8" s="13">
         <v>2017</v>
       </c>
@@ -1747,7 +1810,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="136.5" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1762,7 +1825,7 @@
       </c>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="48">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1777,8 +1840,8 @@
       </c>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="36" customHeight="1"/>
+    <row r="12" spans="1:13" ht="224">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
@@ -1804,7 +1867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="32">
       <c r="A13" s="8">
         <v>2017</v>
       </c>
@@ -1821,7 +1884,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="202" customHeight="1">
       <c r="A14" s="11">
         <v>2017</v>
       </c>
@@ -1835,16 +1898,31 @@
         <v>38</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="96.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="97" customHeight="1">
       <c r="A15" s="8">
         <v>2017</v>
       </c>
@@ -1861,7 +1939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="32">
       <c r="A16" s="8">
         <v>2018</v>
       </c>
@@ -1875,7 +1953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="144.75" customHeight="1">
       <c r="A17" s="8">
         <v>2018</v>
       </c>
@@ -1892,7 +1970,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s">
         <v>28</v>
@@ -1904,7 +1982,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="36" customHeight="1">
       <c r="A18" s="13">
         <v>2019</v>
       </c>
@@ -1940,7 +2018,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="109.5" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -1958,7 +2036,7 @@
       </c>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="102.75" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
@@ -1976,7 +2054,7 @@
       </c>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="48">
       <c r="A21" s="8">
         <v>2019</v>
       </c>
@@ -1993,7 +2071,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:12" ht="39.75" customHeight="1"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L22">
     <sortCondition ref="A1"/>
@@ -2047,26 +2125,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C531D3C7-2B2A-4F63-B567-81EAAB4C89FA}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="L16" sqref="L10:L16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="32.125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2092,7 +2170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -2119,7 +2197,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>54</v>
       </c>
@@ -2137,7 +2215,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -2157,7 +2235,7 @@
         <v>11925</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -2180,7 +2258,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2188,12 +2266,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="313.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="350">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2219,83 +2302,83 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="16">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="16">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="16">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="16">
       <c r="A5" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="16">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="64">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="32">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="16">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="16">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="16">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="16">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="16">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="16">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="16">
       <c r="A17" s="1" t="s">
         <v>98</v>
       </c>

--- a/调研.xlsx
+++ b/调研.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangcy/Documents/Projects/SemiNLP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A71EAF4-F104-5B4F-9406-2F4F69DA2271}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BD25BA-B90E-6448-A1C0-4C4C5FF9FA6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="141">
   <si>
     <t>ICLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,9 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Semi-supervised Multitask Learning for Sequence Labeling</t>
-  </si>
-  <si>
     <t>ACL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,10 +129,6 @@
   </si>
   <si>
     <t>Semi-supervised sequence learning</t>
-  </si>
-  <si>
-    <t>pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>文本分类</t>
@@ -174,41 +167,6 @@
   </si>
   <si>
     <t>co:mutitask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>secondary language modeling objective</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>error detection(First Certi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ﬁ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cate in English, CoNLL2014), NERandChanking(CoNLL2003,BioCreative IV Chemical and Drug corpus),POS(Penn Treebank, GENIA,Universal Dependencies)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co：multitask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -521,11 +479,6 @@
     <t>paragraph vectors</t>
   </si>
   <si>
-    <t>进一步改进了one-hot CNN：one-hot CNN可看做一个linear model + a non-linear feature generator, 本文把non-linear feature extractor从CNN改为了LSTM, 因为LSTM可以 embed text regions of variable (and
-possibly large) sizes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Two-view含义： An embedding is called a tv-embedding if the embedded view is as good as the original view for the purpose of predicting the other view. If the two views and the labels are related to one another only through some hidden states, then the tv-embedded view is as good as the original view for the purpose of classi</t>
     </r>
@@ -640,10 +593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用Dai&amp;Le的方法先做预训练，训练分类器的阶段引入AT(对有标签数据)和VAT(对有+无标签数据)，AT/VAT无法直接对高维离散的one-hot表示做perturbation，所以在word embedding上做perturbation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Transductive SVM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -673,10 +622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技术演进：Adversarial training(a means of regularizing supervised learning; 在输入x附近找到使的log likelihood最小的最差扰动，一阶梯度近似argmin)-&gt;VAT(不需要数据的lable, 用KLD寻找最差扰动，extend to semi-supervised; 用泰勒??近似寻找最差的扰动，)-&gt;extend to text domain by applying perturbations to word embedding rather than original one-hot input.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Deconvolutional Paragraph Representation Learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -685,34 +630,166 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exposure bias为rep learning带来的问题:训练时decode的每一步给groud truth，导致中间embedding h没必要保存reconstruction所需的所有信息了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>learn rep for long paragraph. purly convolutional and deconvolutional seq2seq. Train a sequence autoencoder + supervised model simultaneously</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本分类 (sentiment analysis, paragraph topic prediction)摘要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Deconvolution里用的摘要数据：For summarization, we used a dataset composed of 58,000 abstract-title pairs, from arXiv. Abstracttitle pairs are selected if the length of the title and abstract do not exceed 50 and 500 words, respectively</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DBPedia, Yahoo! Answers and Yelp Review Polarity; 摘要数据来自arxiv的title-abstract pair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>under the joint training objective(reconstruction) -&gt; more extractive; purely supervised objective -&gt; more abstractive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>, the titles produced by a deconvolutional decoder are less coherent than an LSTM decoder.</t>
-  </si>
-  <si>
-    <t>decoder用CNN，解决了exposure bias，实验两方面，生成rep的质量  (原始句子和重构句子间的BLEU和ROUGE)，spelling correction和半监督任务效果</t>
+    <t>pre: weight initialization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进一步改进了one-hot CNN：one-hot CNN可看做一个linear model + a non-linear feature generator, 本文把non-linear feature extractor从CNN改为了LSTM, 因为LSTM可以 embed text regions of variable (and
+possibly large) sizes。最好的结果来自LSTM+CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用Dai&amp;Le的方法先做预训练，训练分类器的阶段引入AT(对有标签数据)和VAT(对有+无标签数据)，AT/VAT无法直接对高维离散的one-hot表示做perturbation，所以在word embedding上做perturbation，AT失去了advesary的意义，只能理解为a means of regularizing a text classi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ﬁ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>er by stabilizing the classi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ﬁ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cation function</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术演进：Adversarial training(a means of regularizing supervised learning; 在输入x附近找到使的log likelihood最小的最差扰动，一阶梯度近似argmin)-&gt;VAT(不需要数据的lable, 用KLD寻找最差扰动，extend to semi-supervised; 用泰勒??近似寻找最差的扰动)-&gt;extend to text domain by applying perturbations to word embedding rather than original one-hot input.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn rep for long paragraph. Purly convolutional and deconvolutional seq2seq. Train a sequence autoencoder + supervised model simultaneously</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本分类 (sentiment analysis, paragraph topic prediction)【摘要】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the titles produced by a deconvolutional decoder are less coherent than an LSTM decoder.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposure bias为rep learning带来的问题:训练时decode的每一步给groud truth，导致中间embedding h没必要保存reconstruction所需的所有信息了。本文的decoder用CNN实现，规避了exposure bias带来的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要数据来自arxiv的title-abstract pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">分类数据：DBPedia, Yahoo! Answers, Yelp Review Polarity </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用无标签数据的意义：By ingesting unlabeled data, the model can learn to abstract latent representations that capture the semantic meaning of all available sentences irrespective of whether or not they are labeled.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验分两方面进行：1) 通过原始句子和重构句子间的BLEU和ROUGE来评估生成rep的质量 2) spelling correction和半监督任务效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semi-supervised Multitask Learning for Sequence Labeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co:joint objective function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co：joint objective function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无监督的含义和意义：majority label (NER中的O，纠错中的C)。没有额外的数据，所谓的半监督目标其实是更充分的利用了不包含关键信息的majority label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无监督部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS(Penn Treebank, GENIA, Universal Dependencies)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER and Chanking(CoNLL2003, BioCreative IV Chemical and Drug corpus)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有监督部分：非常典型的seq2seq架构，softmax or crf objective；特殊之处在于加入了一个前人工作：combine with character-level embedding　(学习字符级别的pattern，处理OOV的情况)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>典型seq2seq架构+额外的无监督目标函数　（language model，正向、反向各一个） ，目的是为了学习general language feature、更好的利用无重要label的单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word embedding dropout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试无监督loss的权重逐渐下降（后期集中于有监督任务），效果不如静态的权重（证明无监督任务在学习的后期也有用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>error detection: FCE(First Certfi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cate in English), CoNLL 2014</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F0.5(CoNLL standard entity-level F 1 score)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,7 +797,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,6 +838,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -793,7 +884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,25 +918,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -953,15 +1038,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>283516</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
+      <xdr:rowOff>663810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>551832</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>53240</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2571482</xdr:rowOff>
+      <xdr:rowOff>2806667</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -984,8 +1069,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11430000" y="12372975"/>
-          <a:ext cx="4942857" cy="2142857"/>
+          <a:off x="11704109" y="13871810"/>
+          <a:ext cx="4953205" cy="2142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,15 +1082,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>288337</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:rowOff>703203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>301037</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>317090</xdr:rowOff>
+      <xdr:rowOff>702793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1028,8 +1113,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11823700" y="18503900"/>
-          <a:ext cx="4495800" cy="2755490"/>
+          <a:off x="11708930" y="18897129"/>
+          <a:ext cx="4518848" cy="2755960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1041,15 +1126,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>338667</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>893704</xdr:rowOff>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1034815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>366890</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1316585</xdr:rowOff>
+      <xdr:colOff>197556</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1457696</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1072,8 +1157,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12784667" y="27892963"/>
+          <a:off x="12709407" y="28034074"/>
           <a:ext cx="6124223" cy="422881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>75260</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1561630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>113106</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>460964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8177BFA-FC98-3C48-BBAB-ED4C1EB1343F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13292667" y="25315334"/>
+          <a:ext cx="8165846" cy="2380074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1272,7 +1401,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1568,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F24936B-2AD0-4D1E-B86F-D457E1F95A70}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C12" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1582,6 +1711,7 @@
     <col min="4" max="4" width="6.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="1" customWidth="1"/>
@@ -1618,73 +1748,73 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="240">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>2015</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>158</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="E2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>23</v>
+      <c r="I2" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="224">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="320">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="240">
@@ -1695,388 +1825,511 @@
         <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3">
         <v>336</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="256">
+      <c r="A6" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10">
+        <v>90</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="136.5" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="217" customHeight="1">
+      <c r="A8" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
         <v>109</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="256">
-      <c r="A6" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12">
-        <v>90</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="136.5" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="217" customHeight="1">
-      <c r="A8" s="13">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="E8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>118</v>
+      <c r="K8" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="136.5" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="12"/>
+        <v>107</v>
+      </c>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="48">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="36" customHeight="1"/>
-    <row r="12" spans="1:13" ht="224">
-      <c r="A12" s="8">
+    <row r="12" spans="1:13" ht="137" customHeight="1">
+      <c r="A12" s="12">
         <v>2017</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3">
+      <c r="C12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="10">
         <v>64</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>28</v>
+      <c r="E12" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="32">
-      <c r="A13" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="3">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="202" customHeight="1">
-      <c r="A14" s="11">
-        <v>2017</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="10">
-        <v>38</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="137" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="80">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="I14" s="12"/>
       <c r="J14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="97" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="32">
       <c r="A15" s="8">
         <v>2017</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="173" customHeight="1">
+      <c r="A16" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="10">
+        <v>38</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="131" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="83" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="97" customHeight="1">
+      <c r="A19" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="32">
-      <c r="A16" s="8">
+    </row>
+    <row r="20" spans="1:13" ht="32">
+      <c r="A20" s="8">
         <v>2018</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D20" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="144.75" customHeight="1">
-      <c r="A17" s="8">
+    <row r="21" spans="1:13" ht="144.75" customHeight="1">
+      <c r="A21" s="8">
         <v>2018</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="36" customHeight="1">
-      <c r="A18" s="13">
-        <v>2019</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="109.5" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" ht="102.75" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" ht="48">
-      <c r="A21" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
+      <c r="E21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="36" customHeight="1">
+      <c r="A22" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="109.5" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" ht="102.75" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="39.75" customHeight="1"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" ht="48">
+      <c r="A25" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="39.75" customHeight="1"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L26">
     <sortCondition ref="A1"/>
   </sortState>
-  <mergeCells count="38">
+  <mergeCells count="55">
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
@@ -2086,35 +2339,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="K8:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2141,38 +2365,38 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <v>25000</v>
@@ -2191,20 +2415,20 @@
         <v>2526</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="15">
+        <v>49</v>
+      </c>
+      <c r="B4" s="13">
         <v>10662</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="12"/>
       <c r="F4">
         <v>22</v>
       </c>
@@ -2212,12 +2436,12 @@
         <v>52</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5">
         <v>11293</v>
@@ -2226,7 +2450,7 @@
         <v>7528</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F5">
         <v>267</v>
@@ -2237,7 +2461,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5">
         <v>560000</v>
@@ -2246,37 +2470,37 @@
         <v>70000</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="350">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2310,77 +2534,77 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16">
       <c r="A5" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="64">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="32">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16">
       <c r="A17" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/调研.xlsx
+++ b/调研.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangcy/Documents/Projects/SemiNLP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayano\Documents\Projects\SemiNLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BD25BA-B90E-6448-A1C0-4C4C5FF9FA6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A9EE98-04EC-4F5F-9A34-12E35ECA8978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DABACBF4-2BBA-4520-9517-995F16F0DB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="149">
   <si>
     <t>ICLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,9 +126,6 @@
   <si>
     <t>IMDB,Elec,RCV1,20NG</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Semi-supervised sequence learning</t>
   </si>
   <si>
     <t>文本分类</t>
@@ -790,6 +787,42 @@
   </si>
   <si>
     <t>F0.5(CoNLL standard entity-level F 1 score)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semi-supervised sequence learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有代码链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无代码链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和第一行的那篇是同一个链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有代码，tf老版本实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有代码，theano实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有代码链接，Tf实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有代码，tf实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,6 +951,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -926,6 +962,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,13 +991,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>323420</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2342890</xdr:rowOff>
@@ -993,13 +1035,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>237643</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2295256</xdr:rowOff>
@@ -1037,16 +1079,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>283516</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>663810</xdr:rowOff>
+      <xdr:rowOff>75798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>53240</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>467858</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2806667</xdr:rowOff>
+      <xdr:rowOff>1887785</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1069,8 +1111,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11704109" y="13871810"/>
-          <a:ext cx="4953205" cy="2142857"/>
+          <a:off x="12180794" y="12368651"/>
+          <a:ext cx="4154593" cy="1811987"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,16 +1123,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>288337</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>703203</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19396</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1588467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>301037</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>702793</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>32096</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2607793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1113,8 +1155,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11708930" y="18897129"/>
-          <a:ext cx="4518848" cy="2755960"/>
+          <a:off x="12088131" y="16772438"/>
+          <a:ext cx="4483847" cy="2756237"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1125,16 +1167,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>169333</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1034815</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>987362</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>197556</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1457696</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>253585</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>493990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1157,8 +1199,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12709407" y="28034074"/>
-          <a:ext cx="6124223" cy="422881"/>
+          <a:off x="12058774" y="26763521"/>
+          <a:ext cx="6079399" cy="422881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1169,16 +1211,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>75260</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1561630</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>86468</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>113106</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>460964</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>424433</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1434353</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1201,8 +1243,492 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13292667" y="25315334"/>
-          <a:ext cx="8165846" cy="2380074"/>
+          <a:off x="12155203" y="21978749"/>
+          <a:ext cx="4809112" cy="1407928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>289831</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>679791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB7A2E4-0BB1-4A89-B1A9-16A1B87199FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11161058" y="3025589"/>
+          <a:ext cx="7685714" cy="3257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>403412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>201393</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2070079</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3EE4FD-AE0F-4365-9D62-01A06C8786DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11105029" y="9805147"/>
+          <a:ext cx="6980952" cy="1666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1770529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>236978</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1688935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27BE14F-1E49-4D24-A05E-F4DF5C701C1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12091146" y="14063382"/>
+          <a:ext cx="4685714" cy="2809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1086971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>37287</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>364841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA9EC94-90A2-4318-969F-D2F4AB7BBF2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12079942" y="18007853"/>
+          <a:ext cx="6514286" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1512795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>343209</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>400188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E0F100-0454-45EC-836B-B4D305CA2D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17783736" y="18433677"/>
+          <a:ext cx="6495238" cy="3380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>120087</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>239337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>471152</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75448E7-7ED3-4C82-BD30-4AE6E3659297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12188822" y="23928572"/>
+          <a:ext cx="6166918" cy="1665663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>560294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>546444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A86961A-3F50-46A1-BDB0-24751A660182}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12203207" y="27252706"/>
+          <a:ext cx="5132293" cy="2182503"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>112061</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>560294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25704</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>301824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA8F367-EA12-4F59-B553-B6DC239AD9CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12180796" y="29449059"/>
+          <a:ext cx="5057143" cy="1400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3749319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4698C97B-24C4-4E6B-8994-EE4CF4E49473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9121589" y="32945294"/>
+          <a:ext cx="4952999" cy="3637260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>606323</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2577042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C6D1D1-1665-475D-B718-815926654A47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14018558" y="32934087"/>
+          <a:ext cx="3800000" cy="2476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2599764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>489242</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4866431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC884FD-7214-4FC5-AC15-CA1E5E454D74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14063382" y="35432999"/>
+          <a:ext cx="3638095" cy="2266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1307,15 +1833,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>138237</xdr:rowOff>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>227642</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180717</xdr:rowOff>
+      <xdr:colOff>246692</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>75942</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1338,8 +1864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="4300662"/>
-          <a:ext cx="6199817" cy="1671255"/>
+          <a:off x="4819650" y="8177337"/>
+          <a:ext cx="6190292" cy="1671255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1697,29 +2223,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F24936B-2AD0-4D1E-B86F-D457E1F95A70}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="26.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="26.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -1732,92 +2259,101 @@
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="240">
-      <c r="A2" s="12">
+      <c r="L1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="213.75">
+      <c r="A2" s="13">
         <v>2015</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>158</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="E2" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="224">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="320">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="240">
+    <row r="3" spans="1:14" ht="213.75">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" ht="299.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="228">
       <c r="A5" s="8">
         <v>2015</v>
       </c>
@@ -1825,525 +2361,569 @@
         <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="D5" s="3">
         <v>336</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="228">
+      <c r="A6" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11">
+        <v>90</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="136.5" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="216.95" customHeight="1">
+      <c r="A8" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>109</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="G8" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="136.5" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="42.75">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="137.1" customHeight="1">
+      <c r="A11" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="11">
+        <v>64</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="137.1" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="71.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="28.5">
+      <c r="A14" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3">
+        <v>61</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="173.1" customHeight="1">
+      <c r="A15" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="11">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="256">
-      <c r="A6" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="10">
-        <v>90</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="136.5" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="217" customHeight="1">
-      <c r="A8" s="12">
+      <c r="E15" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="131.1" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="83.1" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="96.95" customHeight="1">
+      <c r="A18" s="8">
         <v>2017</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10">
-        <v>109</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="136.5" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" ht="48">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" ht="36" customHeight="1"/>
-    <row r="12" spans="1:13" ht="137" customHeight="1">
-      <c r="A12" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="10">
-        <v>64</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="137" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="80">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="32">
-      <c r="A15" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="3">
-        <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="173" customHeight="1">
-      <c r="A16" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="10">
-        <v>38</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="131" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="83" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="97" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="409.5" customHeight="1">
       <c r="A19" s="8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="32">
+        <v>8</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="144.75" customHeight="1">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D20" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="144.75" customHeight="1">
-      <c r="A21" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="3">
+      <c r="G20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="36" customHeight="1">
+      <c r="A21" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="11">
         <v>0</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="36" customHeight="1">
-      <c r="A22" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="10" t="s">
+      <c r="G21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="109.5" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="109.5" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" ht="102.75" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:13" ht="102.75" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" ht="48">
-      <c r="A25" s="8">
+      <c r="L23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" ht="42.75">
+      <c r="A24" s="8">
         <v>2019</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="39.75" customHeight="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="39.75" customHeight="1"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M25">
     <sortCondition ref="A1"/>
   </sortState>
-  <mergeCells count="55">
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
+  <mergeCells count="61">
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="I8:I10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J8:J10"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="E21:E23"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="J2:J4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2:E4" r:id="rId1" display="链接" xr:uid="{1C2D87D7-3030-4B6C-92FB-8947C180037A}"/>
+    <hyperlink ref="E6:E7" r:id="rId2" display="和第一行的那篇是同一个链接" xr:uid="{EAE3CB85-6503-43E0-BAE6-65308CB23661}"/>
+    <hyperlink ref="E8:E10" r:id="rId3" display="有代码，tf老版本实现" xr:uid="{E5DC58C9-9B78-48AB-B7E5-9EC555B6A602}"/>
+    <hyperlink ref="E11:E13" r:id="rId4" display="有代码，theano实现" xr:uid="{279E903B-E907-4443-99CF-705EE20C7BF2}"/>
+    <hyperlink ref="E15:E17" r:id="rId5" display="有代码链接，Tf实现" xr:uid="{5737EF2B-C8BA-4925-A8BE-3F41BADE2CF3}"/>
+    <hyperlink ref="E19" r:id="rId6" xr:uid="{7AAA0B65-96DE-494C-9A64-875E7B1AB4D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2351,47 +2931,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C531D3C7-2B2A-4F63-B567-81EAAB4C89FA}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2415,20 +2995,20 @@
         <v>2526</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="13">
+        <v>48</v>
+      </c>
+      <c r="B4" s="14">
         <v>10662</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="13"/>
       <c r="F4">
         <v>22</v>
       </c>
@@ -2436,12 +3016,12 @@
         <v>52</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>50</v>
+      <c r="A5" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B5" s="5">
         <v>11293</v>
@@ -2450,7 +3030,7 @@
         <v>7528</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5">
         <v>267</v>
@@ -2461,7 +3041,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5">
         <v>560000</v>
@@ -2470,16 +3050,16 @@
         <v>70000</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2487,20 +3067,20 @@
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="350">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="313.5">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2511,10 +3091,11 @@
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{7145368B-DC82-4E3A-86DC-B6A7CC3C7A7C}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{2680A128-F54E-4AC6-8F51-8F153FA6DD89}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{904F2093-A14F-48AA-B8A2-A867B9A74221}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2526,85 +3107,85 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="43.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16">
-      <c r="A4" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="16">
-      <c r="A5" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="64">
+    <row r="7" spans="1:1" ht="57">
       <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="28.5">
+      <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="32">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="16">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16">
-      <c r="A11" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="16">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16">
-      <c r="A13" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="16">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="16">
-      <c r="A17" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
